--- a/documentos/Planilla_excel.xlsx
+++ b/documentos/Planilla_excel.xlsx
@@ -6962,24 +6962,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -7028,17 +7015,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -7064,76 +7040,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7498,12 +7459,12 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="10" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="10" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="10" bestFit="1" customWidth="1"/>
@@ -7525,11 +7486,11 @@
     <col min="20" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>2197</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>2287</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -7563,7 +7524,7 @@
       <c r="L1" s="18" t="s">
         <v>2285</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="22" t="s">
         <v>2269</v>
       </c>
       <c r="N1" s="18" t="s">
@@ -7585,203 +7546,52 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="2" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26" t="e">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="e">
         <f>+VLOOKUP(A2,Empresa!$A$1:$C$20,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="25" t="e">
+      <c r="C2" s="10" t="e">
         <f>+VLOOKUP(A2,Empresa!$A$1:$C$20,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="e">
+      <c r="E2" s="10" t="e">
         <f>+VLOOKUP(F2,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="e">
+      <c r="H2" s="10" t="e">
         <f>+VLOOKUP(I2,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25" t="e">
+      <c r="K2" s="10" t="e">
         <f>+VLOOKUP(L2,Contrato!$B$1:$C$10,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25" t="e">
+      <c r="M2" s="10" t="e">
         <f>+VLOOKUP(N2,Contrato!$D$1:$E$10,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25" t="e">
-        <f>+VLOOKUP(A3,Empresa!$A$1:$C$20,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C3" s="25" t="e">
-        <f>+VLOOKUP(A3,Empresa!$A$1:$C$20,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="e">
-        <f>+VLOOKUP(F3,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="e">
-        <f>+VLOOKUP(I3,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25" t="e">
-        <f>+VLOOKUP(L3,Contrato!$B$1:$C$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25" t="e">
-        <f>+VLOOKUP(N3,Contrato!$D$1:$E$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25" t="e">
-        <f>+VLOOKUP(A4,Empresa!$A$1:$C$20,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="25" t="e">
-        <f>+VLOOKUP(A4,Empresa!$A$1:$C$20,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="e">
-        <f>+VLOOKUP(F4,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25" t="e">
-        <f>+VLOOKUP(I4,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25" t="e">
-        <f>+VLOOKUP(L4,Contrato!$B$1:$C$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="e">
-        <f>+VLOOKUP(N4,Contrato!$D$1:$E$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25" t="e">
-        <f>+VLOOKUP(A5,Empresa!$A$1:$C$20,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="25" t="e">
-        <f>+VLOOKUP(A5,Empresa!$A$1:$C$20,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="e">
-        <f>+VLOOKUP(F5,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="e">
-        <f>+VLOOKUP(I5,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25" t="e">
-        <f>+VLOOKUP(L5,Contrato!$B$1:$C$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25" t="e">
-        <f>+VLOOKUP(N5,Contrato!$D$1:$E$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="e">
-        <f>+VLOOKUP(A6,Empresa!$A$1:$C$20,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="25" t="e">
-        <f>+VLOOKUP(A6,Empresa!$A$1:$C$20,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="e">
-        <f>+VLOOKUP(F6,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="e">
-        <f>+VLOOKUP(I6,Tabla2[[NOM_MPIO]:[COD_MPIO]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25" t="e">
-        <f>+VLOOKUP(L6,Contrato!$B$1:$C$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25" t="e">
-        <f>+VLOOKUP(N6,Contrato!$D$1:$E$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="4">
     <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" error="Solo digite nombre y apellidos, Gracias" sqref="D2:D6">
       <formula1>100</formula1>
@@ -7804,49 +7614,49 @@
           <x14:formula1>
             <xm:f>Contrato!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J6</xm:sqref>
+          <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Contrato!$D$1:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N6</xm:sqref>
+          <xm:sqref>N2:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Mano_Obra!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O6</xm:sqref>
+          <xm:sqref>O2:O1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Frent_Trab!A$1:A$20</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R6</xm:sqref>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Frent_Trab!C$1:C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S6</xm:sqref>
+          <xm:sqref>S2:S1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Contrato!B$1:B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L6</xm:sqref>
+          <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Si no encuentra el lugar de expedicion, por favor comuníquese con área de sistemas, Gracias">
           <x14:formula1>
             <xm:f>Cod_Mncpios!A$2:A$1120</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I6</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Si no encuentra el lugar de nacimiento, por favor comuníquese con área de sistemas, Gracias">
           <x14:formula1>
             <xm:f>Cod_Mncpios!A$2:A$1120</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F6</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Si no encuentra la empresa, por favor comuníquese con área de sistemas, Gracias">
           <x14:formula1>
@@ -7865,7 +7675,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7983,6 +7793,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="UA4UEftJMjKOETfc2e+5ZaM0lsCKg9sm6teDZr5VZOLeGJWK7WQr8LKP8QhXPXYr7EQoPgDwC52a+UwPpnuJog==" saltValue="atfCtoV+d3Wm7XB+IdWmKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7992,7 +7803,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8008,6 +7819,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="OkqweHxvHEiyifKNRs651+VjKAJOzO+EZH3dSIiIMmVcjGOE9oO4VvUMWSlUOIXZ+bl5CPNqp4jkVMHtYLIBiA==" saltValue="GP7sGV+KfoLYKBubIZzYnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8017,7 +7829,7 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8628,6 +8440,7 @@
       <c r="E121" s="14"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="6lsfVqUvB99gfghgKS/LWxJHCa7gTihfHoXUIIjQUZhixw7rTsakJY+5vVilm87NfQdEorNOVmbNpbYtVi4SyQ==" saltValue="d+r62AKhEPGyhpVdhTDBqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8638,7 +8451,7 @@
   <dimension ref="A1:C1120"/>
   <sheetViews>
     <sheetView topLeftCell="A1096" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20969,6 +20782,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="s9mkdKRZ/iRF8BtZ2BLochWapu8XJeUVeCNP0IG+JSC0M+MRjDEgmA77nOck7oCnL/FRjuYeqOZmogX8MwT9ZQ==" saltValue="I5/Iq1Gjxdc36oUSMbFg5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -20981,7 +20795,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21124,6 +20938,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="KI7PJoa4RplpJFnzKhExXBfMGgwQ7xljmL592gfcjGBGXyZOcywujAy86K6by3EqxHU74C3tFeThaGUwrIGTMw==" saltValue="yfkM1a1vfTyc2gOwSHnmyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>